--- a/documents/ESD Test Plan.xlsx
+++ b/documents/ESD Test Plan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="246">
   <si>
     <t>Test Plan</t>
   </si>
@@ -697,10 +697,58 @@
     <t>Checkbox is ticked. -Add new Price</t>
   </si>
   <si>
+    <t>New price saved - Messeage to confirm change</t>
+  </si>
+  <si>
     <t>Change Price of Child</t>
   </si>
   <si>
     <t>Change Price of Student</t>
+  </si>
+  <si>
+    <t>Pay for tickets</t>
+  </si>
+  <si>
+    <t>Show Amount to pay</t>
+  </si>
+  <si>
+    <t>NO Action required - shown on screen</t>
+  </si>
+  <si>
+    <t>Shown on screen when redirected to page</t>
+  </si>
+  <si>
+    <t>Input long Card number</t>
+  </si>
+  <si>
+    <t>LeftMouse - X - 16 digits</t>
+  </si>
+  <si>
+    <t>16 digit card number added</t>
+  </si>
+  <si>
+    <t>Input Expiry Month</t>
+  </si>
+  <si>
+    <t>LeftMouse - Drop down month</t>
+  </si>
+  <si>
+    <t>month number added</t>
+  </si>
+  <si>
+    <t>Input Expiry Year</t>
+  </si>
+  <si>
+    <t>LeftMouse - drop down year</t>
+  </si>
+  <si>
+    <t>year number added</t>
+  </si>
+  <si>
+    <t>Make Payment</t>
+  </si>
+  <si>
+    <t>payment made - message to confirm shown</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +2967,9 @@
       <c r="D104" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E104" s="16"/>
+      <c r="E104" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="F104" s="13" t="s">
         <v>63</v>
       </c>
@@ -2930,12 +2980,14 @@
     <row r="105">
       <c r="B105" s="16"/>
       <c r="C105" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E105" s="16"/>
+      <c r="E105" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="F105" s="13" t="s">
         <v>63</v>
       </c>
@@ -2946,12 +2998,14 @@
     <row r="106">
       <c r="B106" s="16"/>
       <c r="C106" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E106" s="16"/>
+      <c r="E106" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="F106" s="13" t="s">
         <v>63</v>
       </c>
@@ -2960,10 +3014,18 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+      <c r="B107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="F107" s="13" t="s">
         <v>63</v>
       </c>
@@ -2973,13 +3035,85 @@
     </row>
     <row r="108">
       <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
+      <c r="C108" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="F108" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G108" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="16"/>
+      <c r="C109" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="16"/>
+      <c r="C110" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="16"/>
+      <c r="C111" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G111" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G112" s="21" t="s">
         <v>7</v>
       </c>
     </row>
